--- a/Output2.xlsx
+++ b/Output2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEE2FAB-E469-4339-90B9-175CF711349B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C45D92B-2AC8-49A6-AF42-5FD67822523C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица 1" sheetId="1" r:id="rId1"/>
@@ -17848,13 +17848,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3028"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="93.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="103.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -42414,9 +42416,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CO110"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
